--- a/teaching/traditional_assets/database/data/switzerland/switzerland_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_computers_peripherals.xlsx
@@ -591,118 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0655</v>
-      </c>
-      <c r="E2">
-        <v>0.19</v>
+        <v>0.127</v>
       </c>
       <c r="G2">
-        <v>0.1800112178363598</v>
+        <v>0.1563234089046708</v>
       </c>
       <c r="H2">
-        <v>0.1196802916637453</v>
+        <v>0.1012564872985523</v>
       </c>
       <c r="I2">
-        <v>0.1022126145768728</v>
+        <v>0.1646064496752328</v>
       </c>
       <c r="J2">
-        <v>0.09639104695340571</v>
+        <v>0.1646064496752328</v>
       </c>
       <c r="K2">
-        <v>273.2</v>
+        <v>670.4</v>
       </c>
       <c r="L2">
-        <v>0.09577227792189581</v>
+        <v>0.1831193662933625</v>
       </c>
       <c r="M2">
-        <v>176.2</v>
+        <v>233.6</v>
       </c>
       <c r="N2">
-        <v>0.02229307421746501</v>
+        <v>0.01459689815914118</v>
       </c>
       <c r="O2">
-        <v>0.6449487554904831</v>
+        <v>0.3484486873508353</v>
       </c>
       <c r="P2">
-        <v>124.2</v>
+        <v>146.7</v>
       </c>
       <c r="Q2">
-        <v>0.01571396037349123</v>
+        <v>0.009166802054563404</v>
       </c>
       <c r="R2">
-        <v>0.4546120058565154</v>
+        <v>0.2188245823389021</v>
       </c>
       <c r="S2">
-        <v>51.99999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="T2">
-        <v>0.2951191827468785</v>
+        <v>0.3720034246575343</v>
       </c>
       <c r="U2">
-        <v>574.5</v>
+        <v>917.2</v>
       </c>
       <c r="V2">
-        <v>0.07268655583390268</v>
+        <v>0.05731282102553208</v>
       </c>
       <c r="W2">
-        <v>0.2699071329776724</v>
+        <v>0.5742184154175589</v>
       </c>
       <c r="X2">
-        <v>0.08988838386468256</v>
+        <v>0.06768431463869683</v>
       </c>
       <c r="Y2">
-        <v>0.1800187491129898</v>
+        <v>0.5065341007788621</v>
       </c>
       <c r="Z2">
-        <v>10.30409177706801</v>
+        <v>13.06664953851902</v>
       </c>
       <c r="AA2">
-        <v>0.9932221942955638</v>
+        <v>2.150854789686135</v>
       </c>
       <c r="AB2">
-        <v>0.08932977687008804</v>
+        <v>0.06758545600414918</v>
       </c>
       <c r="AC2">
-        <v>0.9038924174254758</v>
+        <v>2.083269333681986</v>
       </c>
       <c r="AD2">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>36.14147829006401</v>
+        <v>30.87893869486439</v>
       </c>
       <c r="AF2">
-        <v>72.04147829006401</v>
+        <v>30.87893869486439</v>
       </c>
       <c r="AG2">
-        <v>-502.458521709936</v>
+        <v>-886.3210613051357</v>
       </c>
       <c r="AH2">
-        <v>0.009032461149855869</v>
+        <v>0.001925807753059947</v>
       </c>
       <c r="AI2">
-        <v>0.05811945751863387</v>
+        <v>0.01777840585600492</v>
       </c>
       <c r="AJ2">
-        <v>-0.06788749352854062</v>
+        <v>-0.05863044473733868</v>
       </c>
       <c r="AK2">
-        <v>-0.7555295994497114</v>
+        <v>-1.081302714348599</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-9.09</v>
+        <v>-5.81</v>
       </c>
       <c r="AN2">
-        <v>0.09859928591046414</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-1.380001432875408</v>
+        <v>-1.303030081307168</v>
       </c>
       <c r="AQ2">
-        <v>-31.57315731573157</v>
+        <v>-102.7710843373494</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0655</v>
-      </c>
-      <c r="E3">
-        <v>0.19</v>
+        <v>0.127</v>
       </c>
       <c r="G3">
-        <v>0.1800112178363598</v>
+        <v>0.1563234089046708</v>
       </c>
       <c r="H3">
-        <v>0.1196802916637453</v>
+        <v>0.1012564872985523</v>
       </c>
       <c r="I3">
-        <v>0.1022126145768728</v>
+        <v>0.1646064496752328</v>
       </c>
       <c r="J3">
-        <v>0.09639104695340571</v>
+        <v>0.1646064496752328</v>
       </c>
       <c r="K3">
-        <v>273.2</v>
+        <v>670.4</v>
       </c>
       <c r="L3">
-        <v>0.09577227792189581</v>
+        <v>0.1831193662933625</v>
       </c>
       <c r="M3">
-        <v>176.2</v>
+        <v>233.6</v>
       </c>
       <c r="N3">
-        <v>0.02229307421746501</v>
+        <v>0.01459689815914118</v>
       </c>
       <c r="O3">
-        <v>0.6449487554904831</v>
+        <v>0.3484486873508353</v>
       </c>
       <c r="P3">
-        <v>124.2</v>
+        <v>146.7</v>
       </c>
       <c r="Q3">
-        <v>0.01571396037349123</v>
+        <v>0.009166802054563404</v>
       </c>
       <c r="R3">
-        <v>0.4546120058565154</v>
+        <v>0.2188245823389021</v>
       </c>
       <c r="S3">
-        <v>51.99999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="T3">
-        <v>0.2951191827468785</v>
+        <v>0.3720034246575343</v>
       </c>
       <c r="U3">
-        <v>574.5</v>
+        <v>917.2</v>
       </c>
       <c r="V3">
-        <v>0.07268655583390268</v>
+        <v>0.05731282102553208</v>
       </c>
       <c r="W3">
-        <v>0.2699071329776724</v>
+        <v>0.5742184154175589</v>
       </c>
       <c r="X3">
-        <v>0.08988838386468256</v>
+        <v>0.06768431463869683</v>
       </c>
       <c r="Y3">
-        <v>0.1800187491129898</v>
+        <v>0.5065341007788621</v>
       </c>
       <c r="Z3">
-        <v>10.30409177706801</v>
+        <v>13.06664953851902</v>
       </c>
       <c r="AA3">
-        <v>0.9932221942955638</v>
+        <v>2.150854789686135</v>
       </c>
       <c r="AB3">
-        <v>0.08932977687008804</v>
+        <v>0.06758545600414918</v>
       </c>
       <c r="AC3">
-        <v>0.9038924174254758</v>
+        <v>2.083269333681986</v>
       </c>
       <c r="AD3">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>36.14147829006401</v>
+        <v>30.87893869486439</v>
       </c>
       <c r="AF3">
-        <v>72.04147829006401</v>
+        <v>30.87893869486439</v>
       </c>
       <c r="AG3">
-        <v>-502.458521709936</v>
+        <v>-886.3210613051357</v>
       </c>
       <c r="AH3">
-        <v>0.009032461149855869</v>
+        <v>0.001925807753059947</v>
       </c>
       <c r="AI3">
-        <v>0.05811945751863387</v>
+        <v>0.01777840585600492</v>
       </c>
       <c r="AJ3">
-        <v>-0.06788749352854062</v>
+        <v>-0.05863044473733868</v>
       </c>
       <c r="AK3">
-        <v>-0.7555295994497114</v>
+        <v>-1.081302714348599</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-9.09</v>
+        <v>-5.81</v>
       </c>
       <c r="AN3">
-        <v>0.09859928591046414</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.380001432875408</v>
+        <v>-1.303030081307168</v>
       </c>
       <c r="AQ3">
-        <v>-31.57315731573157</v>
+        <v>-102.7710843373494</v>
       </c>
     </row>
   </sheetData>
